--- a/natmiOut/OldD7/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.90486369537854</v>
+        <v>4.551825333333333</v>
       </c>
       <c r="H2">
-        <v>3.90486369537854</v>
+        <v>13.655476</v>
       </c>
       <c r="I2">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="J2">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="N2">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="O2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q2">
-        <v>8.473172880563013</v>
+        <v>13.91542619296133</v>
       </c>
       <c r="R2">
-        <v>8.473172880563013</v>
+        <v>125.238835736652</v>
       </c>
       <c r="S2">
-        <v>0.007803325507228289</v>
+        <v>0.0105153358926284</v>
       </c>
       <c r="T2">
-        <v>0.007803325507228289</v>
+        <v>0.0105153358926284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.90486369537854</v>
+        <v>4.551825333333333</v>
       </c>
       <c r="H3">
-        <v>3.90486369537854</v>
+        <v>13.655476</v>
       </c>
       <c r="I3">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="J3">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N3">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q3">
-        <v>346.6156017612712</v>
+        <v>405.2379029728533</v>
       </c>
       <c r="R3">
-        <v>346.6156017612712</v>
+        <v>3647.14112675568</v>
       </c>
       <c r="S3">
-        <v>0.3192138770862998</v>
+        <v>0.3062222174940862</v>
       </c>
       <c r="T3">
-        <v>0.3192138770862998</v>
+        <v>0.3062222174940862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.90486369537854</v>
+        <v>4.551825333333333</v>
       </c>
       <c r="H4">
-        <v>3.90486369537854</v>
+        <v>13.655476</v>
       </c>
       <c r="I4">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="J4">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>19.6583408597897</v>
+        <v>0.184005</v>
       </c>
       <c r="N4">
-        <v>19.6583408597897</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q4">
-        <v>76.76314153476935</v>
+        <v>0.8375586204599998</v>
       </c>
       <c r="R4">
-        <v>76.76314153476935</v>
+        <v>7.538027584139999</v>
       </c>
       <c r="S4">
-        <v>0.07069462511821653</v>
+        <v>0.0006329098442100326</v>
       </c>
       <c r="T4">
-        <v>0.07069462511821653</v>
+        <v>0.0006329098442100325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.27909820623598</v>
+        <v>4.551825333333333</v>
       </c>
       <c r="H5">
-        <v>3.27909820623598</v>
+        <v>13.655476</v>
       </c>
       <c r="I5">
-        <v>0.3339773786193557</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="J5">
-        <v>0.3339773786193557</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.16990234270946</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N5">
-        <v>2.16990234270946</v>
+        <v>63.508942</v>
       </c>
       <c r="O5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q5">
-        <v>7.115322879685841</v>
+        <v>96.36053702959912</v>
       </c>
       <c r="R5">
-        <v>7.115322879685841</v>
+        <v>867.244833266392</v>
       </c>
       <c r="S5">
-        <v>0.006552820448947129</v>
+        <v>0.07281583758985534</v>
       </c>
       <c r="T5">
-        <v>0.006552820448947129</v>
+        <v>0.07281583758985534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.27909820623598</v>
+        <v>3.622039333333333</v>
       </c>
       <c r="H6">
-        <v>3.27909820623598</v>
+        <v>10.866118</v>
       </c>
       <c r="I6">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="J6">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.76509624945309</v>
+        <v>3.057109</v>
       </c>
       <c r="N6">
-        <v>88.76509624945309</v>
+        <v>9.171327</v>
       </c>
       <c r="O6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q6">
-        <v>291.0694678879458</v>
+        <v>11.07296904428733</v>
       </c>
       <c r="R6">
-        <v>291.0694678879458</v>
+        <v>99.656721398586</v>
       </c>
       <c r="S6">
-        <v>0.2680589473579172</v>
+        <v>0.008367403715471764</v>
       </c>
       <c r="T6">
-        <v>0.2680589473579172</v>
+        <v>0.008367403715471764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.27909820623598</v>
+        <v>3.622039333333333</v>
       </c>
       <c r="H7">
-        <v>3.27909820623598</v>
+        <v>10.866118</v>
       </c>
       <c r="I7">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="J7">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6583408597897</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N7">
-        <v>19.6583408597897</v>
+        <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q7">
-        <v>64.46163025091188</v>
+        <v>322.4613240706933</v>
       </c>
       <c r="R7">
-        <v>64.46163025091188</v>
+        <v>2902.15191663624</v>
       </c>
       <c r="S7">
-        <v>0.05936561081249127</v>
+        <v>0.2436712385208985</v>
       </c>
       <c r="T7">
-        <v>0.05936561081249127</v>
+        <v>0.2436712385208985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.848552925462406</v>
+        <v>3.622039333333333</v>
       </c>
       <c r="H8">
-        <v>0.848552925462406</v>
+        <v>10.866118</v>
       </c>
       <c r="I8">
-        <v>0.08642543279941192</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="J8">
-        <v>0.08642543279941192</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.16990234270946</v>
+        <v>0.184005</v>
       </c>
       <c r="N8">
-        <v>2.16990234270946</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q8">
-        <v>1.841276980873841</v>
+        <v>0.6664733475299999</v>
       </c>
       <c r="R8">
-        <v>1.841276980873841</v>
+        <v>5.998260127769999</v>
       </c>
       <c r="S8">
-        <v>0.001695714678935056</v>
+        <v>0.0005036274861856028</v>
       </c>
       <c r="T8">
-        <v>0.001695714678935056</v>
+        <v>0.0005036274861856027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.848552925462406</v>
+        <v>3.622039333333333</v>
       </c>
       <c r="H9">
-        <v>0.848552925462406</v>
+        <v>10.866118</v>
       </c>
       <c r="I9">
-        <v>0.08642543279941192</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="J9">
-        <v>0.08642543279941192</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.76509624945309</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N9">
-        <v>88.76509624945309</v>
+        <v>63.508942</v>
       </c>
       <c r="O9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q9">
-        <v>75.32188210142547</v>
+        <v>76.67729531412844</v>
       </c>
       <c r="R9">
-        <v>75.32188210142547</v>
+        <v>690.0956578271559</v>
       </c>
       <c r="S9">
-        <v>0.06936730456695706</v>
+        <v>0.05794199217370407</v>
       </c>
       <c r="T9">
-        <v>0.06936730456695706</v>
+        <v>0.05794199217370406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.848552925462406</v>
+        <v>1.291101666666667</v>
       </c>
       <c r="H10">
-        <v>0.848552925462406</v>
+        <v>3.873305</v>
       </c>
       <c r="I10">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="J10">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.6583408597897</v>
+        <v>3.057109</v>
       </c>
       <c r="N10">
-        <v>19.6583408597897</v>
+        <v>9.171327</v>
       </c>
       <c r="O10">
-        <v>0.177753388741194</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P10">
-        <v>0.177753388741194</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q10">
-        <v>16.6811426463117</v>
+        <v>3.947038525081667</v>
       </c>
       <c r="R10">
-        <v>16.6811426463117</v>
+        <v>35.523346725735</v>
       </c>
       <c r="S10">
-        <v>0.01536241355351981</v>
+        <v>0.002982620531836243</v>
       </c>
       <c r="T10">
-        <v>0.01536241355351981</v>
+        <v>0.002982620531836242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.78580945521906</v>
+        <v>1.291101666666667</v>
       </c>
       <c r="H11">
-        <v>1.78580945521906</v>
+        <v>3.873305</v>
       </c>
       <c r="I11">
-        <v>0.1818853608694878</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="J11">
-        <v>0.1818853608694878</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.16990234270946</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N11">
-        <v>2.16990234270946</v>
+        <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.01962055177520146</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P11">
-        <v>0.01962055177520146</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q11">
-        <v>3.875032120512543</v>
+        <v>114.9436310952667</v>
       </c>
       <c r="R11">
-        <v>3.875032120512543</v>
+        <v>1034.4926798574</v>
       </c>
       <c r="S11">
-        <v>0.003568691140090987</v>
+        <v>0.0868583450427456</v>
       </c>
       <c r="T11">
-        <v>0.003568691140090987</v>
+        <v>0.08685834504274559</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.78580945521906</v>
+        <v>1.291101666666667</v>
       </c>
       <c r="H12">
-        <v>1.78580945521906</v>
+        <v>3.873305</v>
       </c>
       <c r="I12">
-        <v>0.1818853608694878</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="J12">
-        <v>0.1818853608694878</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>88.76509624945309</v>
+        <v>0.184005</v>
       </c>
       <c r="N12">
-        <v>88.76509624945309</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O12">
-        <v>0.8026260594836044</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P12">
-        <v>0.8026260594836044</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q12">
-        <v>158.5175481757033</v>
+        <v>0.237569162175</v>
       </c>
       <c r="R12">
-        <v>158.5175481757033</v>
+        <v>2.138122459575</v>
       </c>
       <c r="S12">
-        <v>0.1459859304724304</v>
+        <v>0.0001795215973524424</v>
       </c>
       <c r="T12">
-        <v>0.1459859304724304</v>
+        <v>0.0001795215973524423</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.78580945521906</v>
+        <v>1.291101666666667</v>
       </c>
       <c r="H13">
-        <v>1.78580945521906</v>
+        <v>3.873305</v>
       </c>
       <c r="I13">
-        <v>0.1818853608694878</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="J13">
-        <v>0.1818853608694878</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.6583408597897</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N13">
-        <v>19.6583408597897</v>
+        <v>63.508942</v>
       </c>
       <c r="O13">
-        <v>0.177753388741194</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P13">
-        <v>0.177753388741194</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q13">
-        <v>35.10605098133163</v>
+        <v>27.33216695481223</v>
       </c>
       <c r="R13">
-        <v>35.10605098133163</v>
+        <v>245.98950259331</v>
       </c>
       <c r="S13">
-        <v>0.03233073925696642</v>
+        <v>0.02065383497550541</v>
       </c>
       <c r="T13">
-        <v>0.03233073925696642</v>
+        <v>0.0206538349755054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.200808</v>
+      </c>
+      <c r="H14">
+        <v>6.602424000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1886551151355205</v>
+      </c>
+      <c r="J14">
+        <v>0.1886551151355205</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.057109</v>
+      </c>
+      <c r="N14">
+        <v>9.171327</v>
+      </c>
+      <c r="O14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="P14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="Q14">
+        <v>6.728109944072001</v>
+      </c>
+      <c r="R14">
+        <v>60.55298949664801</v>
+      </c>
+      <c r="S14">
+        <v>0.005084165946727245</v>
+      </c>
+      <c r="T14">
+        <v>0.005084165946727245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.200808</v>
+      </c>
+      <c r="H15">
+        <v>6.602424000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1886551151355205</v>
+      </c>
+      <c r="J15">
+        <v>0.1886551151355205</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>89.02755999999999</v>
+      </c>
+      <c r="N15">
+        <v>267.08268</v>
+      </c>
+      <c r="O15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="P15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="Q15">
+        <v>195.93256626848</v>
+      </c>
+      <c r="R15">
+        <v>1763.39309641632</v>
+      </c>
+      <c r="S15">
+        <v>0.148058472521659</v>
+      </c>
+      <c r="T15">
+        <v>0.148058472521659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.200808</v>
+      </c>
+      <c r="H16">
+        <v>6.602424000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1886551151355205</v>
+      </c>
+      <c r="J16">
+        <v>0.1886551151355205</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.184005</v>
+      </c>
+      <c r="N16">
+        <v>0.5520149999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="P16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="Q16">
+        <v>0.40495967604</v>
+      </c>
+      <c r="R16">
+        <v>3.64463708436</v>
+      </c>
+      <c r="S16">
+        <v>0.0003060119724313221</v>
+      </c>
+      <c r="T16">
+        <v>0.000306011972431322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.200808</v>
+      </c>
+      <c r="H17">
+        <v>6.602424000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1886551151355205</v>
+      </c>
+      <c r="J17">
+        <v>0.1886551151355205</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="N17">
+        <v>63.508942</v>
+      </c>
+      <c r="O17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="P17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="Q17">
+        <v>46.59032920837868</v>
+      </c>
+      <c r="R17">
+        <v>419.3129628754081</v>
+      </c>
+      <c r="S17">
+        <v>0.03520646469470293</v>
+      </c>
+      <c r="T17">
+        <v>0.03520646469470292</v>
       </c>
     </row>
   </sheetData>
